--- a/Admin/uploads/cse.xlsx
+++ b/Admin/uploads/cse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srini\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A28B237-C309-4B79-95D0-91B8A252E447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77BBDE8-D82E-4DEB-9DE0-0D6915188995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B851C488-B275-4DF2-9CE3-159025BFEE39}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B851C488-B275-4DF2-9CE3-159025BFEE39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Nani</t>
+    <t>Dileep</t>
   </si>
   <si>
-    <t>srinivasnani055@gmail.com</t>
+    <t>20B91A05P4</t>
   </si>
   <si>
-    <t>20B91A05P8</t>
+    <t>dileeppujala@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
